--- a/backend/media/excel_files/students.xlsx
+++ b/backend/media/excel_files/students.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -925,6 +925,48 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ala</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>sakag</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0552987332</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2024-11-12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Médecine</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Bac + 2</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Cybersécurité, Intelligence Artificielle</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/media/excel_files/students.xlsx
+++ b/backend/media/excel_files/students.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,6 +525,53 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>testing</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>testing</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0552987332</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>test@gmail.com</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2016-10-10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Génie Civil</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Bac + 1</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Recherche en Thérapie Génomique</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/media/excel_files/students.xlsx
+++ b/backend/media/excel_files/students.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,6 +572,147 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0552987332</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>aladinslh@gmail.com</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024-01-01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Informatique</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bac + 1</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Production de Médicaments</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>testing</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>05529873332</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>aladinslh@gmail.com</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2016-10-09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Génie Civil</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bac + 2</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Recherche en Thérapie Génomique</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>alaa</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>salah</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0552987332</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>alddinslh@gmail.com</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2016-09-10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Génie Civil</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bac + 1</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Recherche en Thérapie Génomique</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
